--- a/features/backlog/android/notifications.xlsx
+++ b/features/backlog/android/notifications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\features\backlog\android\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92768378-51FA-4957-AF01-77F7B11D7EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43478C2B-A05E-4FE8-8AB2-9A33E0691247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="75">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -253,6 +253,15 @@
 2. login with valid credentials.
 3. tap on the bell icon to the upper right corner or observe the push banner in the notification section.
 4. click on the push message</t>
+  </si>
+  <si>
+    <t>should go to the buy now page after tap on the push banner</t>
+  </si>
+  <si>
+    <t>should refresh the all data after tap on the push banner</t>
+  </si>
+  <si>
+    <t>should logout from the app after tap on the push banner</t>
   </si>
 </sst>
 </file>
@@ -1313,8 +1322,8 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G2"/>
+      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1472,7 +1481,7 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
     </row>
-    <row r="5" spans="1:26" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>29</v>
       </c>
@@ -1512,7 +1521,7 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
-    <row r="6" spans="1:26" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>30</v>
       </c>
@@ -1566,7 +1575,7 @@
         <v>56</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>7</v>
@@ -1606,7 +1615,7 @@
         <v>56</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>7</v>
@@ -1646,7 +1655,7 @@
         <v>56</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>7</v>
